--- a/data/zenodo/conversion/elec/CHE_convelec_pv.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_pv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE24476-3031-7B40-8D49-207DC0B77968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A0801-C44C-524F-9783-AB6D24967E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12320" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="103">
   <si>
     <t>Name:</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -760,11 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -866,16 +869,13 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -887,13 +887,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -908,13 +908,13 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -929,13 +929,13 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -950,26 +950,18 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -979,19 +971,25 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1001,25 +999,21 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1029,16 +1023,22 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1050,16 +1050,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
@@ -1074,26 +1071,21 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>73.244756330000001</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" t="s">
-        <v>92</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1103,25 +1095,25 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>64516.782039999998</v>
+        <v>73.244756330000001</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1132,18 +1124,26 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>64516.782039999998</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1153,16 +1153,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>52</v>
@@ -1176,27 +1173,22 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>1.3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1212,10 +1204,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="s">
         <v>44</v>
@@ -1241,10 +1233,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="s">
         <v>44</v>
@@ -1270,10 +1262,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="s">
         <v>44</v>
@@ -1299,10 +1291,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
         <v>44</v>
@@ -1328,10 +1320,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="s">
         <v>44</v>
@@ -1357,10 +1349,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="s">
         <v>44</v>
@@ -1386,10 +1378,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
         <v>44</v>
@@ -1415,10 +1407,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="H28" t="s">
         <v>44</v>
@@ -1444,10 +1436,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
-        <v>8.8000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="H29" t="s">
         <v>44</v>
@@ -1473,10 +1465,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
-        <v>10.199999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H30" t="s">
         <v>44</v>
@@ -1502,10 +1494,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
-        <v>11.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H31" t="s">
         <v>44</v>
@@ -1531,10 +1523,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
-        <v>13.6</v>
+        <v>11.9</v>
       </c>
       <c r="H32" t="s">
         <v>44</v>
@@ -1560,10 +1552,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
-        <v>16.3</v>
+        <v>13.6</v>
       </c>
       <c r="H33" t="s">
         <v>44</v>
@@ -1589,10 +1581,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="H34" t="s">
         <v>44</v>
@@ -1618,10 +1610,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>19.5</v>
+        <v>16.8</v>
       </c>
       <c r="H35" t="s">
         <v>44</v>
@@ -1647,10 +1639,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
-        <v>22.4</v>
+        <v>19.5</v>
       </c>
       <c r="H36" t="s">
         <v>44</v>
@@ -1676,10 +1668,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
-        <v>27.1</v>
+        <v>22.4</v>
       </c>
       <c r="H37" t="s">
         <v>44</v>
@@ -1705,10 +1697,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
-        <v>35.200000000000003</v>
+        <v>27.1</v>
       </c>
       <c r="H38" t="s">
         <v>44</v>
@@ -1734,10 +1726,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
-        <v>52.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H39" t="s">
         <v>44</v>
@@ -1763,10 +1755,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
-        <v>92</v>
+        <v>52.9</v>
       </c>
       <c r="H40" t="s">
         <v>44</v>
@@ -1792,10 +1784,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>166.3</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s">
         <v>44</v>
@@ -1821,10 +1813,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>297.7</v>
+        <v>166.3</v>
       </c>
       <c r="H42" t="s">
         <v>44</v>
@@ -1850,10 +1842,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>498.8</v>
+        <v>297.7</v>
       </c>
       <c r="H43" t="s">
         <v>44</v>
@@ -1879,10 +1871,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>839.5</v>
+        <v>498.8</v>
       </c>
       <c r="H44" t="s">
         <v>44</v>
@@ -1908,10 +1900,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>1116.4000000000001</v>
+        <v>839.5</v>
       </c>
       <c r="H45" t="s">
         <v>44</v>
@@ -1937,10 +1929,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>1331.4</v>
+        <v>1116.4000000000001</v>
       </c>
       <c r="H46" t="s">
         <v>44</v>
@@ -1966,10 +1958,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
-        <v>1680.8</v>
+        <v>1331.4</v>
       </c>
       <c r="H47" t="s">
         <v>44</v>
@@ -1995,10 +1987,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
-        <v>1942.2</v>
+        <v>1680.8</v>
       </c>
       <c r="H48" t="s">
         <v>44</v>
@@ -2024,10 +2016,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>2174.3000000000002</v>
+        <v>1942.2</v>
       </c>
       <c r="H49" t="s">
         <v>44</v>
@@ -2047,19 +2039,19 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>2.1</v>
+        <v>2174.3000000000002</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
         <v>45</v>
@@ -2082,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="s">
         <v>47</v>
@@ -2111,10 +2103,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="s">
         <v>47</v>
@@ -2140,10 +2132,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
@@ -2169,10 +2161,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="H54" t="s">
         <v>47</v>
@@ -2198,10 +2190,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="H55" t="s">
         <v>47</v>
@@ -2227,10 +2219,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
@@ -2256,10 +2248,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="H57" t="s">
         <v>47</v>
@@ -2285,10 +2277,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
-        <v>10.199999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
@@ -2314,10 +2306,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
-        <v>11.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H59" t="s">
         <v>47</v>
@@ -2343,10 +2335,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
-        <v>13.7</v>
+        <v>11.7</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
@@ -2372,10 +2364,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>16.100000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="H61" t="s">
         <v>47</v>
@@ -2401,10 +2393,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
-        <v>17.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
@@ -2430,10 +2422,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
-        <v>19.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
@@ -2459,10 +2451,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
-        <v>21.8</v>
+        <v>19.5</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
@@ -2474,7 +2466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2488,10 +2480,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
-        <v>25.7</v>
+        <v>21.8</v>
       </c>
       <c r="H65" t="s">
         <v>47</v>
@@ -2503,7 +2495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2517,10 +2509,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
-        <v>27.4</v>
+        <v>25.7</v>
       </c>
       <c r="H66" t="s">
         <v>47</v>
@@ -2532,7 +2524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2546,10 +2538,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
-        <v>34.5</v>
+        <v>27.4</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
@@ -2561,7 +2553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2575,10 +2567,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>46.4</v>
+        <v>34.5</v>
       </c>
       <c r="H68" t="s">
         <v>47</v>
@@ -2590,7 +2582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2604,10 +2596,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
-        <v>76.5</v>
+        <v>46.4</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
@@ -2619,7 +2611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2633,10 +2625,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>122.4</v>
+        <v>76.5</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
@@ -2648,7 +2640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2662,10 +2654,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>219.9</v>
+        <v>122.4</v>
       </c>
       <c r="H71" t="s">
         <v>47</v>
@@ -2677,7 +2669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2691,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
-        <v>433.5</v>
+        <v>219.9</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
@@ -2706,7 +2698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2720,10 +2712,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
-        <v>752.4</v>
+        <v>433.5</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
@@ -2735,7 +2727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2749,10 +2741,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
-        <v>1056.9000000000001</v>
+        <v>752.4</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
@@ -2764,7 +2756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2778,10 +2770,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
-        <v>1390.1</v>
+        <v>1056.9000000000001</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
@@ -2793,7 +2785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2807,10 +2799,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>1660.2</v>
+        <v>1390.1</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
@@ -2822,7 +2814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2836,10 +2828,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
-        <v>1902.3</v>
+        <v>1660.2</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
@@ -2851,7 +2843,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2865,10 +2857,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
-        <v>2167.6</v>
+        <v>1902.3</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
@@ -2880,7 +2872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2894,40 +2886,40 @@
         <v>39</v>
       </c>
       <c r="E79">
+        <v>2018</v>
+      </c>
+      <c r="G79">
+        <v>2167.6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80">
         <v>2019</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>2492</v>
       </c>
-      <c r="H79" t="s">
-        <v>47</v>
-      </c>
-      <c r="I79" t="s">
-        <v>45</v>
-      </c>
-      <c r="J79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80">
-        <v>1990</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80" t="s">
         <v>47</v>
       </c>
@@ -2936,9 +2928,6 @@
       </c>
       <c r="J80" t="s">
         <v>46</v>
-      </c>
-      <c r="L80" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2955,10 +2944,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>47</v>
@@ -2987,7 +2976,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>1.2</v>
@@ -3019,10 +3008,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="s">
         <v>47</v>
@@ -3051,7 +3040,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
         <v>0.9</v>
@@ -3083,10 +3072,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="s">
         <v>47</v>
@@ -3115,10 +3104,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
@@ -3147,10 +3136,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="s">
         <v>47</v>
@@ -3179,10 +3168,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
@@ -3211,10 +3200,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="s">
         <v>47</v>
@@ -3243,10 +3232,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="s">
         <v>47</v>
@@ -3275,10 +3264,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
@@ -3307,10 +3296,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
@@ -3339,10 +3328,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
@@ -3371,10 +3360,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
@@ -3403,10 +3392,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
-        <v>3.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
@@ -3435,10 +3424,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
@@ -3467,10 +3456,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
@@ -3499,10 +3488,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="H98" t="s">
         <v>47</v>
@@ -3531,10 +3520,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>30.1</v>
+        <v>11.9</v>
       </c>
       <c r="H99" t="s">
         <v>47</v>
@@ -3563,10 +3552,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>45.9</v>
+        <v>30.1</v>
       </c>
       <c r="H100" t="s">
         <v>47</v>
@@ -3595,10 +3584,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>97.5</v>
+        <v>45.9</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
@@ -3627,10 +3616,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>213.6</v>
+        <v>97.5</v>
       </c>
       <c r="H102" t="s">
         <v>47</v>
@@ -3659,10 +3648,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>318.89999999999998</v>
+        <v>213.6</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
@@ -3691,10 +3680,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
-        <v>304.5</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="H104" t="s">
         <v>47</v>
@@ -3723,10 +3712,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
-        <v>333.2</v>
+        <v>304.5</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
@@ -3755,10 +3744,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
-        <v>270.10000000000002</v>
+        <v>333.2</v>
       </c>
       <c r="H106" t="s">
         <v>47</v>
@@ -3787,10 +3776,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
-        <v>242.1</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
@@ -3819,10 +3808,10 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
-        <v>265.3</v>
+        <v>242.1</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
@@ -3851,10 +3840,10 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
-        <v>324.39999999999998</v>
+        <v>265.3</v>
       </c>
       <c r="H109" t="s">
         <v>47</v>
@@ -3877,16 +3866,16 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>324.39999999999998</v>
       </c>
       <c r="H110" t="s">
         <v>47</v>
@@ -3915,7 +3904,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3947,7 +3936,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3979,7 +3968,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4011,7 +4000,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4043,7 +4032,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4075,7 +4064,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4107,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4139,7 +4128,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4171,7 +4160,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4203,7 +4192,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4235,7 +4224,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4267,7 +4256,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4299,7 +4288,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4331,7 +4320,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4363,7 +4352,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4395,7 +4384,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4427,7 +4416,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4459,7 +4448,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4491,7 +4480,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4523,7 +4512,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4555,7 +4544,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4587,7 +4576,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4619,7 +4608,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4651,7 +4640,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4683,7 +4672,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4715,7 +4704,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4747,7 +4736,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4779,7 +4768,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4811,7 +4800,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4837,16 +4826,28 @@
         <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>47</v>
       </c>
       <c r="I140" t="s">
         <v>45</v>
+      </c>
+      <c r="J140" t="s">
+        <v>46</v>
+      </c>
+      <c r="L140" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4863,7 +4864,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>45</v>
@@ -4883,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>45</v>
@@ -4903,7 +4904,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
@@ -4923,7 +4924,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>45</v>
@@ -4943,7 +4944,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -4963,7 +4964,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>45</v>
@@ -4983,7 +4984,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>45</v>
@@ -5003,7 +5004,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>45</v>
@@ -5023,7 +5024,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -5043,7 +5044,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>45</v>
@@ -5063,7 +5064,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
@@ -5083,7 +5084,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>45</v>
@@ -5103,7 +5104,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>45</v>
@@ -5123,7 +5124,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>45</v>
@@ -5143,7 +5144,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
@@ -5163,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>45</v>
@@ -5183,7 +5184,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>45</v>
@@ -5203,7 +5204,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -5223,7 +5224,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
@@ -5243,7 +5244,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>45</v>
@@ -5263,7 +5264,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>45</v>
@@ -5283,7 +5284,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>45</v>
@@ -5303,7 +5304,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
@@ -5323,7 +5324,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>45</v>
@@ -5343,7 +5344,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>45</v>
@@ -5363,7 +5364,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>45</v>
@@ -5383,7 +5384,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
@@ -5403,22 +5404,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>15</v>
-      </c>
-      <c r="H168" t="s">
-        <v>58</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>45</v>
-      </c>
-      <c r="J168" t="s">
-        <v>59</v>
-      </c>
-      <c r="L168" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5435,10 +5424,22 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>15</v>
+      </c>
+      <c r="H169" t="s">
+        <v>58</v>
       </c>
       <c r="I169" t="s">
         <v>45</v>
+      </c>
+      <c r="J169" t="s">
+        <v>59</v>
+      </c>
+      <c r="L169" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5449,25 +5450,16 @@
         <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
-      </c>
-      <c r="G170">
-        <v>7987.5518700000002</v>
-      </c>
-      <c r="H170" t="s">
-        <v>61</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>45</v>
-      </c>
-      <c r="J170" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -5484,13 +5476,13 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G171">
         <v>7987.5518700000002</v>
       </c>
       <c r="H171" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I171" t="s">
         <v>45</v>
@@ -5513,13 +5505,13 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G172">
         <v>7987.5518700000002</v>
       </c>
       <c r="H172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I172" t="s">
         <v>45</v>
@@ -5542,22 +5534,19 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G173">
         <v>7987.5518700000002</v>
       </c>
       <c r="H173" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I173" t="s">
         <v>45</v>
       </c>
       <c r="J173" t="s">
-        <v>66</v>
-      </c>
-      <c r="L173" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -5574,13 +5563,13 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G174">
-        <v>7900.4149399999997</v>
+        <v>7987.5518700000002</v>
       </c>
       <c r="H174" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I174" t="s">
         <v>45</v>
@@ -5606,13 +5595,13 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G175">
-        <v>7697.0954400000001</v>
+        <v>7900.4149399999997</v>
       </c>
       <c r="H175" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I175" t="s">
         <v>45</v>
@@ -5638,13 +5627,13 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G176">
-        <v>7668.04979</v>
+        <v>7697.0954400000001</v>
       </c>
       <c r="H176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
@@ -5670,13 +5659,13 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G177">
-        <v>7464.7302900000004</v>
+        <v>7668.04979</v>
       </c>
       <c r="H177" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I177" t="s">
         <v>45</v>
@@ -5702,13 +5691,13 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G178">
-        <v>7522.8215799999998</v>
+        <v>7464.7302900000004</v>
       </c>
       <c r="H178" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
@@ -5734,13 +5723,13 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G179">
-        <v>7232.3651499999996</v>
+        <v>7522.8215799999998</v>
       </c>
       <c r="H179" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I179" t="s">
         <v>45</v>
@@ -5766,13 +5755,13 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G180">
-        <v>7580.9128600000004</v>
+        <v>7232.3651499999996</v>
       </c>
       <c r="H180" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I180" t="s">
         <v>45</v>
@@ -5798,13 +5787,13 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G181">
-        <v>6100</v>
+        <v>7580.9128600000004</v>
       </c>
       <c r="H181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5813,7 +5802,7 @@
         <v>66</v>
       </c>
       <c r="L181" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -5830,13 +5819,13 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G182">
         <v>6100</v>
       </c>
       <c r="H182" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I182" t="s">
         <v>45</v>
@@ -5862,13 +5851,13 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G183">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="H183" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
@@ -5894,13 +5883,13 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G184">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="H184" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I184" t="s">
         <v>45</v>
@@ -5926,13 +5915,13 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G185">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="H185" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I185" t="s">
         <v>45</v>
@@ -5958,13 +5947,13 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G186">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="H186" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I186" t="s">
         <v>45</v>
@@ -5990,13 +5979,13 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G187">
-        <v>6950</v>
+        <v>7200</v>
       </c>
       <c r="H187" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I187" t="s">
         <v>45</v>
@@ -6022,13 +6011,13 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G188">
-        <v>7750</v>
+        <v>6950</v>
       </c>
       <c r="H188" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I188" t="s">
         <v>45</v>
@@ -6054,13 +6043,13 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G189">
-        <v>5900</v>
+        <v>7750</v>
       </c>
       <c r="H189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I189" t="s">
         <v>45</v>
@@ -6086,22 +6075,22 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G190">
-        <v>5999.0155370000002</v>
+        <v>5900</v>
       </c>
       <c r="H190" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I190" t="s">
         <v>45</v>
       </c>
       <c r="J190" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L190" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -6118,10 +6107,10 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G191">
-        <v>4790.9008819999999</v>
+        <v>5999.0155370000002</v>
       </c>
       <c r="H191" t="s">
         <v>85</v>
@@ -6150,10 +6139,10 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G192">
-        <v>3791.1229790000002</v>
+        <v>4790.9008819999999</v>
       </c>
       <c r="H192" t="s">
         <v>85</v>
@@ -6182,10 +6171,10 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G193">
-        <v>3249.7782499999998</v>
+        <v>3791.1229790000002</v>
       </c>
       <c r="H193" t="s">
         <v>85</v>
@@ -6214,10 +6203,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G194">
-        <v>2590.8153069999998</v>
+        <v>3249.7782499999998</v>
       </c>
       <c r="H194" t="s">
         <v>85</v>
@@ -6246,10 +6235,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G195">
-        <v>2072.0770630000002</v>
+        <v>2590.8153069999998</v>
       </c>
       <c r="H195" t="s">
         <v>85</v>
@@ -6278,10 +6267,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G196">
-        <v>1881.1430250000001</v>
+        <v>2072.0770630000002</v>
       </c>
       <c r="H196" t="s">
         <v>85</v>
@@ -6310,10 +6299,10 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G197">
-        <v>1803.9349159999999</v>
+        <v>1881.1430250000001</v>
       </c>
       <c r="H197" t="s">
         <v>85</v>
@@ -6342,10 +6331,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G198">
-        <v>1802.2196670000001</v>
+        <v>1803.9349159999999</v>
       </c>
       <c r="H198" t="s">
         <v>85</v>
@@ -6374,10 +6363,10 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G199">
-        <v>1455.218396</v>
+        <v>1802.2196670000001</v>
       </c>
       <c r="H199" t="s">
         <v>85</v>
@@ -6400,16 +6389,28 @@
         <v>43</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G200">
+        <v>1455.218396</v>
+      </c>
+      <c r="H200" t="s">
+        <v>85</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
+      </c>
+      <c r="J200" t="s">
+        <v>86</v>
+      </c>
+      <c r="L200" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -6426,7 +6427,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>45</v>
@@ -6446,7 +6447,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -6466,7 +6467,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
@@ -6486,7 +6487,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>45</v>
@@ -6506,7 +6507,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>45</v>
@@ -6526,7 +6527,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>45</v>
@@ -6546,7 +6547,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>45</v>
@@ -6566,7 +6567,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>45</v>
@@ -6586,7 +6587,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>45</v>
@@ -6606,7 +6607,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>45</v>
@@ -6626,7 +6627,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>45</v>
@@ -6646,7 +6647,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
@@ -6666,7 +6667,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>45</v>
@@ -6686,7 +6687,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>45</v>
@@ -6706,7 +6707,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
@@ -6726,7 +6727,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>45</v>
@@ -6746,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>45</v>
@@ -6766,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>45</v>
@@ -6786,7 +6787,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
@@ -6806,7 +6807,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
@@ -6826,7 +6827,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>45</v>
@@ -6846,7 +6847,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
@@ -6866,7 +6867,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
@@ -6886,7 +6887,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
@@ -6906,7 +6907,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
@@ -6926,7 +6927,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
@@ -6946,7 +6947,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
@@ -6966,19 +6967,10 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>88</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
-      </c>
-      <c r="J228" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6995,10 +6987,19 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s">
+        <v>88</v>
       </c>
       <c r="I229" t="s">
         <v>45</v>
+      </c>
+      <c r="J229" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -7009,28 +7010,16 @@
         <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>47</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>45</v>
-      </c>
-      <c r="J230" t="s">
-        <v>46</v>
-      </c>
-      <c r="L230" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -7047,7 +7036,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -7079,7 +7068,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -7111,7 +7100,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -7143,7 +7132,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -7175,7 +7164,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7207,7 +7196,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7239,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7271,7 +7260,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7303,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7335,7 +7324,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7367,7 +7356,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7399,7 +7388,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7431,7 +7420,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7463,7 +7452,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7495,7 +7484,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7527,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7559,7 +7548,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7591,7 +7580,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7623,7 +7612,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7655,7 +7644,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7687,7 +7676,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7719,7 +7708,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7751,7 +7740,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7783,7 +7772,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7815,7 +7804,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7847,7 +7836,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7879,7 +7868,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7911,7 +7900,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7943,7 +7932,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7969,19 +7958,28 @@
         <v>43</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>47</v>
       </c>
       <c r="I260" t="s">
         <v>45</v>
+      </c>
+      <c r="J260" t="s">
+        <v>46</v>
+      </c>
+      <c r="L260" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7998,10 +7996,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>45</v>
@@ -8021,7 +8019,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>0.2</v>
@@ -8044,7 +8042,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>0.2</v>
@@ -8067,7 +8065,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>0.2</v>
@@ -8090,7 +8088,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>0.2</v>
@@ -8113,7 +8111,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>0.2</v>
@@ -8136,7 +8134,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>0.2</v>
@@ -8159,7 +8157,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>0.2</v>
@@ -8182,7 +8180,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -8205,7 +8203,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>0.2</v>
@@ -8228,7 +8226,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>0.2</v>
@@ -8251,7 +8249,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>0.2</v>
@@ -8274,7 +8272,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>0.2</v>
@@ -8297,7 +8295,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>0.2</v>
@@ -8320,7 +8318,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>0.2</v>
@@ -8343,7 +8341,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>0.2</v>
@@ -8366,7 +8364,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>0.2</v>
@@ -8389,7 +8387,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>0.2</v>
@@ -8412,7 +8410,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>0.2</v>
@@ -8435,7 +8433,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>0.2</v>
@@ -8458,7 +8456,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>0.2</v>
@@ -8481,7 +8479,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>0.2</v>
@@ -8504,7 +8502,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>0.2</v>
@@ -8527,7 +8525,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>0.2</v>
@@ -8550,7 +8548,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>0.2</v>
@@ -8573,7 +8571,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>0.2</v>
@@ -8596,7 +8594,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.2</v>
@@ -8619,7 +8617,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.2</v>
@@ -8642,7 +8640,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>0.2</v>
@@ -8659,16 +8657,16 @@
         <v>43</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I290" t="s">
         <v>45</v>
@@ -8688,7 +8686,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -8711,7 +8709,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -8734,7 +8732,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -8757,7 +8755,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -8780,7 +8778,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -8803,7 +8801,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -8826,7 +8824,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -8849,7 +8847,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -8872,7 +8870,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -8895,7 +8893,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -8918,7 +8916,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -8941,7 +8939,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -8964,7 +8962,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -8987,7 +8985,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -9010,7 +9008,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -9033,7 +9031,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -9056,7 +9054,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -9079,7 +9077,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -9102,7 +9100,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -9125,7 +9123,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -9148,7 +9146,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -9171,7 +9169,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -9194,7 +9192,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -9217,7 +9215,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -9240,7 +9238,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -9263,7 +9261,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -9286,7 +9284,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -9309,7 +9307,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -9332,24 +9330,47 @@
         <v>39</v>
       </c>
       <c r="E319">
+        <v>2018</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="I319" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
         <v>2019</v>
       </c>
-      <c r="G319">
-        <v>0</v>
-      </c>
-      <c r="I319" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="I320" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K16" r:id="rId1" xr:uid="{C47DFCEC-44A8-DC48-A22D-7DA72BEA8100}"/>
-    <hyperlink ref="K17" r:id="rId2" xr:uid="{A69A31E3-C9D8-F248-9A39-97FDA42427E2}"/>
+    <hyperlink ref="K17" r:id="rId1" xr:uid="{C47DFCEC-44A8-DC48-A22D-7DA72BEA8100}"/>
+    <hyperlink ref="K18" r:id="rId2" xr:uid="{A69A31E3-C9D8-F248-9A39-97FDA42427E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/elec/CHE_convelec_pv.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_pv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A0801-C44C-524F-9783-AB6D24967E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D70D4-010B-C448-99BE-D771B4A69CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12320" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,9 +443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -483,9 +483,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,26 +518,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,26 +553,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,8 +732,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="5" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G261:G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7999,7 +7965,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I261" t="s">
         <v>45</v>
